--- a/SPQM/Team Assignment/Final/Tìm hiểu/Chau/CM for Agile/Template/K16T1-Team15-ChangeLog-Template.xlsx
+++ b/SPQM/Team Assignment/Final/Tìm hiểu/Chau/CM for Agile/Template/K16T1-Team15-ChangeLog-Template.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Capstone\1. Project management\5. Change management plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NC\Desktop\Team 5\SPQM\Team Assignment\Final\Tìm hiểu\Chau\CM for Agile\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710"/>
   </bookViews>
   <sheets>
-    <sheet name="Log" sheetId="1" r:id="rId1"/>
+    <sheet name="Change log" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
@@ -100,7 +100,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -460,21 +460,21 @@
   <dimension ref="A1:X30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="62.140625" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1"/>
-    <col min="22" max="22" width="18.5703125" customWidth="1"/>
-    <col min="23" max="23" width="12.140625" customWidth="1"/>
-    <col min="24" max="24" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.75" customWidth="1"/>
+    <col min="2" max="2" width="16.25" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="62.125" customWidth="1"/>
+    <col min="6" max="6" width="21.375" customWidth="1"/>
+    <col min="7" max="7" width="12.25" customWidth="1"/>
+    <col min="8" max="8" width="20.625" customWidth="1"/>
+    <col min="22" max="22" width="18.625" customWidth="1"/>
+    <col min="23" max="23" width="12.125" customWidth="1"/>
+    <col min="24" max="24" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
@@ -533,7 +533,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -552,7 +552,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -571,7 +571,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -590,7 +590,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -603,7 +603,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -613,7 +613,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -623,7 +623,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -633,7 +633,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -643,7 +643,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -653,7 +653,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -663,7 +663,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -673,7 +673,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -683,7 +683,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -693,7 +693,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -703,7 +703,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -713,7 +713,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -723,7 +723,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -733,7 +733,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -743,7 +743,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -753,7 +753,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -763,7 +763,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -773,7 +773,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -783,7 +783,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -793,7 +793,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -803,7 +803,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -813,7 +813,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -823,7 +823,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -833,7 +833,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
